--- a/data/strategies/海通场外策略结果.xlsx
+++ b/data/strategies/海通场外策略结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
   <si>
     <t>华宝中证科技龙头ETF联接A</t>
   </si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>25.55%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>8.99%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>22.36%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>22.91%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>29.85%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>1.39%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>8.74%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>22.74%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>29.63%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -149,76 +146,76 @@
     <t>162412.OF</t>
   </si>
   <si>
-    <t>2.01%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>-4.41%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
-  </si>
-  <si>
-    <t>16.19%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>21.82%</t>
-  </si>
-  <si>
-    <t>26.64%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>4.48%</t>
-  </si>
-  <si>
-    <t>15.29%</t>
-  </si>
-  <si>
-    <t>18.21%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>33.34%</t>
-  </si>
-  <si>
-    <t>26.25%</t>
-  </si>
-  <si>
-    <t>20.20%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>32.40%</t>
-  </si>
-  <si>
-    <t>25.77%</t>
-  </si>
-  <si>
-    <t>24.21%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
-  </si>
-  <si>
-    <t>41.12%</t>
-  </si>
-  <si>
-    <t>32.10%</t>
+    <t>2.90%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-9.08%</t>
+  </si>
+  <si>
+    <t>-3.09%</t>
+  </si>
+  <si>
+    <t>8.47%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>9.63%</t>
+  </si>
+  <si>
+    <t>11.88%</t>
+  </si>
+  <si>
+    <t>0.96%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>-1.77%</t>
+  </si>
+  <si>
+    <t>8.42%</t>
+  </si>
+  <si>
+    <t>21.71%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>29.77%</t>
+  </si>
+  <si>
+    <t>36.17%</t>
+  </si>
+  <si>
+    <t>20.67%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>30.75%</t>
+  </si>
+  <si>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>24.09%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
+  </si>
+  <si>
+    <t>40.62%</t>
+  </si>
+  <si>
+    <t>33.14%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,7 +230,13 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
   </si>
   <si>
     <t>600809.SH</t>
@@ -242,325 +245,328 @@
     <t>000568.SZ</t>
   </si>
   <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
     <t>002304.SZ</t>
   </si>
   <si>
+    <t>000799.SZ</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
+  </si>
+  <si>
     <t>603259.SH</t>
   </si>
   <si>
-    <t>000799.SZ</t>
-  </si>
-  <si>
     <t>300760.SZ</t>
   </si>
   <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
     <t>603369.SH</t>
   </si>
   <si>
-    <t>000725.SZ</t>
+    <t>000596.SZ</t>
+  </si>
+  <si>
+    <t>002460.SZ</t>
   </si>
   <si>
     <t>300347.SZ</t>
   </si>
   <si>
-    <t>000596.SZ</t>
-  </si>
-  <si>
-    <t>000860.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>600763.SH</t>
-  </si>
-  <si>
     <t>600779.SH</t>
   </si>
   <si>
+    <t>603589.SH</t>
+  </si>
+  <si>
     <t>002812.SZ</t>
   </si>
   <si>
-    <t>5.71%</t>
-  </si>
-  <si>
-    <t>5.40%</t>
-  </si>
-  <si>
-    <t>4.58%</t>
-  </si>
-  <si>
-    <t>4.37%</t>
-  </si>
-  <si>
-    <t>4.17%</t>
-  </si>
-  <si>
-    <t>1.99%</t>
-  </si>
-  <si>
-    <t>1.98%</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
-    <t>1.58%</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>1.05%</t>
-  </si>
-  <si>
-    <t>1.00%</t>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>002050.SZ</t>
+  </si>
+  <si>
+    <t>002340.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>526.32%</t>
+  </si>
+  <si>
+    <t>500.68%</t>
+  </si>
+  <si>
+    <t>496.45%</t>
+  </si>
+  <si>
+    <t>460.55%</t>
+  </si>
+  <si>
+    <t>450.22%</t>
+  </si>
+  <si>
+    <t>209.55%</t>
+  </si>
+  <si>
+    <t>171.98%</t>
+  </si>
+  <si>
+    <t>169.32%</t>
+  </si>
+  <si>
+    <t>157.05%</t>
+  </si>
+  <si>
+    <t>122.46%</t>
+  </si>
+  <si>
+    <t>99.36%</t>
+  </si>
+  <si>
+    <t>91.41%</t>
+  </si>
+  <si>
+    <t>90.90%</t>
+  </si>
+  <si>
+    <t>88.97%</t>
+  </si>
+  <si>
+    <t>87.85%</t>
+  </si>
+  <si>
+    <t>87.48%</t>
+  </si>
+  <si>
+    <t>86.61%</t>
+  </si>
+  <si>
+    <t>85.99%</t>
+  </si>
+  <si>
+    <t>85.97%</t>
+  </si>
+  <si>
+    <t>85.14%</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>今世缘</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
+    <t>水井坊</t>
+  </si>
+  <si>
+    <t>口子窖</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>中高档酒类</t>
+  </si>
+  <si>
+    <t>酒鬼系列</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
+    <t>生命信息与支持类产品</t>
+  </si>
+  <si>
+    <t>锂系列产品</t>
+  </si>
+  <si>
+    <t>临床研究相关咨询服务</t>
+  </si>
+  <si>
+    <t>高档酒</t>
+  </si>
+  <si>
+    <t>高档白酒</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
+  </si>
+  <si>
+    <t>三元材料</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>53.73%</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>-3.29%</t>
+  </si>
+  <si>
+    <t>-10.74%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>70.80%</t>
   </si>
   <si>
     <t>0.92%</t>
   </si>
   <si>
-    <t>0.91%</t>
-  </si>
-  <si>
-    <t>0.90%</t>
-  </si>
-  <si>
-    <t>0.88%</t>
-  </si>
-  <si>
-    <t>0.87%</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>酒鬼酒</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>今世缘</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>泰格医药</t>
-  </si>
-  <si>
-    <t>古井贡酒</t>
-  </si>
-  <si>
-    <t>顺鑫农业</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>通策医疗</t>
-  </si>
-  <si>
-    <t>水井坊</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>白酒</t>
-  </si>
-  <si>
-    <t>中高档酒类</t>
-  </si>
-  <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>酒鬼系列</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>特A+类</t>
-  </si>
-  <si>
-    <t>显示器件业务</t>
-  </si>
-  <si>
-    <t>临床研究相关咨询服务</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>医药生物</t>
   </si>
   <si>
     <t>医疗服务</t>
   </si>
   <si>
-    <t>高档酒</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>68.06%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>-3.73%</t>
-  </si>
-  <si>
-    <t>7.93%</t>
-  </si>
-  <si>
-    <t>20.12%</t>
-  </si>
-  <si>
-    <t>-18.15%</t>
-  </si>
-  <si>
-    <t>-39.72%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
-  </si>
-  <si>
-    <t>67.48%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
     <t>医疗器械</t>
   </si>
   <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>69.63%</t>
-  </si>
-  <si>
-    <t>10.54%</t>
-  </si>
-  <si>
-    <t>5.81%</t>
-  </si>
-  <si>
-    <t>5.69%</t>
-  </si>
-  <si>
-    <t>4.25%</t>
-  </si>
-  <si>
-    <t>4.09%</t>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>49.12%</t>
+  </si>
+  <si>
+    <t>5.65%</t>
+  </si>
+  <si>
+    <t>4.20%</t>
+  </si>
+  <si>
+    <t>2.78%</t>
+  </si>
+  <si>
+    <t>2.54%</t>
+  </si>
+  <si>
+    <t>1.40%</t>
   </si>
 </sst>
 </file>
@@ -924,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,16 +996,16 @@
         <v>1.010086179380785</v>
       </c>
       <c r="C3">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="D3">
-        <v>1.032805271274359</v>
+        <v>1.032806243888038</v>
       </c>
       <c r="E3">
-        <v>0.9958954089388872</v>
+        <v>0.9959402985074626</v>
       </c>
       <c r="F3">
-        <v>0.8583994190123372</v>
+        <v>0.8583989556756666</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1016,16 +1022,16 @@
         <v>1.044174912224705</v>
       </c>
       <c r="C4">
-        <v>1.074458058435438</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="D4">
-        <v>1.085658208327492</v>
+        <v>1.085650497259996</v>
       </c>
       <c r="E4">
-        <v>1.013681970203709</v>
+        <v>1.013731343283582</v>
       </c>
       <c r="F4">
-        <v>0.8856923388439086</v>
+        <v>0.8856926021874901</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1042,16 +1048,16 @@
         <v>1.045579316948611</v>
       </c>
       <c r="C5">
-        <v>1.05937794533459</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="D5">
-        <v>1.088812561334642</v>
+        <v>1.088805653449453</v>
       </c>
       <c r="E5">
-        <v>1.033064761325631</v>
+        <v>1.033074626865672</v>
       </c>
       <c r="F5">
-        <v>0.8876065654473051</v>
+        <v>0.8876000600594232</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1068,16 +1074,16 @@
         <v>1.052792850303224</v>
       </c>
       <c r="C6">
-        <v>1.086710650329878</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="D6">
-        <v>1.104584326370391</v>
+        <v>1.104581434396738</v>
       </c>
       <c r="E6">
-        <v>1.041730009121314</v>
+        <v>1.041791044776119</v>
       </c>
       <c r="F6">
-        <v>0.9001138743148731</v>
+        <v>0.9001154435655514</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1094,16 +1100,16 @@
         <v>1.058857325247367</v>
       </c>
       <c r="C7">
-        <v>1.077285579641847</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="D7">
-        <v>1.071568764895556</v>
+        <v>1.071572227245051</v>
       </c>
       <c r="E7">
-        <v>1.042566129522651</v>
+        <v>1.042626865671642</v>
       </c>
       <c r="F7">
-        <v>0.8887853976179374</v>
+        <v>0.8887939468518178</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1120,16 +1126,16 @@
         <v>1.067475263325886</v>
       </c>
       <c r="C8">
-        <v>1.04052780395853</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="D8">
-        <v>1.036800785083415</v>
+        <v>1.036791704337879</v>
       </c>
       <c r="E8">
-        <v>1.045226512617817</v>
+        <v>1.045253731343283</v>
       </c>
       <c r="F8">
-        <v>0.8729671550978175</v>
+        <v>0.8729621521446752</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1146,16 +1152,16 @@
         <v>1.091860836259176</v>
       </c>
       <c r="C9">
-        <v>1.063147973609802</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="D9">
-        <v>1.068484508621898</v>
+        <v>1.068490875878739</v>
       </c>
       <c r="E9">
-        <v>1.055944055944056</v>
+        <v>1.056</v>
       </c>
       <c r="F9">
-        <v>0.893182154753722</v>
+        <v>0.8931877618772217</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1172,16 +1178,16 @@
         <v>1.087839131822534</v>
       </c>
       <c r="C10">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="D10">
-        <v>1.058600869199495</v>
+        <v>1.058601029577283</v>
       </c>
       <c r="E10">
-        <v>1.039449680754029</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="F10">
-        <v>0.8812278274277604</v>
+        <v>0.8812357171391725</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1198,16 +1204,16 @@
         <v>1.075199489307373</v>
       </c>
       <c r="C11">
-        <v>1.005655042412818</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="D11">
-        <v>1.025445114257676</v>
+        <v>1.025444212779305</v>
       </c>
       <c r="E11">
-        <v>1.040969899665552</v>
+        <v>1.041074626865672</v>
       </c>
       <c r="F11">
-        <v>0.8639021915422816</v>
+        <v>0.8639141128080281</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1224,16 +1230,16 @@
         <v>1.065751675710182</v>
       </c>
       <c r="C12">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="D12">
-        <v>0.9936912939857002</v>
+        <v>0.9936896876210861</v>
       </c>
       <c r="E12">
-        <v>1.038461538461539</v>
+        <v>1.038567164179105</v>
       </c>
       <c r="F12">
-        <v>0.8552488517830612</v>
+        <v>0.8552614612480549</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1250,16 +1256,16 @@
         <v>1.085668688158315</v>
       </c>
       <c r="C13">
-        <v>1.034872761545712</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="D13">
-        <v>0.975396046544231</v>
+        <v>0.9753860914810782</v>
       </c>
       <c r="E13">
-        <v>1.050091213134691</v>
+        <v>1.050149253731343</v>
       </c>
       <c r="F13">
-        <v>0.8556377919765048</v>
+        <v>0.8556426473417058</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1276,16 +1282,16 @@
         <v>1.069518033833387</v>
       </c>
       <c r="C14">
-        <v>1.008482563619227</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="D14">
-        <v>0.9556988644329173</v>
+        <v>0.9556986549070982</v>
       </c>
       <c r="E14">
-        <v>1.029112192155671</v>
+        <v>1.029134328358209</v>
       </c>
       <c r="F14">
-        <v>0.8384442385354927</v>
+        <v>0.838445484387268</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1302,16 +1308,16 @@
         <v>1.080753271624641</v>
       </c>
       <c r="C15">
-        <v>1.051837888784166</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="D15">
-        <v>0.9630590214496003</v>
+        <v>0.9630606860158312</v>
       </c>
       <c r="E15">
-        <v>1.072286409242931</v>
+        <v>1.072358208955224</v>
       </c>
       <c r="F15">
-        <v>0.8572772318729489</v>
+        <v>0.8572835170136807</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1328,16 +1334,16 @@
         <v>1.101691669326524</v>
       </c>
       <c r="C16">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="D16">
-        <v>0.9917285854479181</v>
+        <v>0.9917338598077385</v>
       </c>
       <c r="E16">
-        <v>1.105959258133171</v>
+        <v>1.106029850746269</v>
       </c>
       <c r="F16">
-        <v>0.8795389383076234</v>
+        <v>0.8795495830621007</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1354,16 +1360,16 @@
         <v>1.109352058729652</v>
       </c>
       <c r="C17">
-        <v>1.100848256361923</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="D17">
-        <v>0.9842983316977428</v>
+        <v>0.9842980238758603</v>
       </c>
       <c r="E17">
-        <v>1.168060200668896</v>
+        <v>1.168119402985075</v>
       </c>
       <c r="F17">
-        <v>0.8932824361361907</v>
+        <v>0.8932876656905321</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1380,16 +1386,16 @@
         <v>1.102840727736993</v>
       </c>
       <c r="C18">
-        <v>1.098020735155514</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="D18">
-        <v>1.046824617972802</v>
+        <v>1.046829160285625</v>
       </c>
       <c r="E18">
-        <v>1.180525995743387</v>
+        <v>1.180537313432836</v>
       </c>
       <c r="F18">
-        <v>0.9143853619204099</v>
+        <v>0.9143815672995057</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1406,16 +1412,16 @@
         <v>1.066645387807214</v>
       </c>
       <c r="C19">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="D19">
-        <v>1.023342212252909</v>
+        <v>1.023340775319667</v>
       </c>
       <c r="E19">
-        <v>1.135147461234418</v>
+        <v>1.135164179104478</v>
       </c>
       <c r="F19">
-        <v>0.8878682635965143</v>
+        <v>0.8878623567791044</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1432,16 +1438,16 @@
         <v>1.075007979572295</v>
       </c>
       <c r="C20">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="D20">
-        <v>0.9939015841861768</v>
+        <v>0.9938926508847353</v>
       </c>
       <c r="E20">
-        <v>1.12975068409851</v>
+        <v>1.129791044776119</v>
       </c>
       <c r="F20">
-        <v>0.8796453859173107</v>
+        <v>0.8796463538742161</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1458,16 +1464,16 @@
         <v>1.026428343440792</v>
       </c>
       <c r="C21">
-        <v>1.033930254476909</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="D21">
-        <v>0.981143978690593</v>
+        <v>0.9811428676864034</v>
       </c>
       <c r="E21">
-        <v>1.088020674977197</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="F21">
-        <v>0.8535618859851423</v>
+        <v>0.8535684595625664</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1484,16 +1490,16 @@
         <v>1.021895946377274</v>
       </c>
       <c r="C22">
-        <v>1.015080113100848</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="D22">
-        <v>0.9991588391980932</v>
+        <v>0.9991512445338303</v>
       </c>
       <c r="E22">
-        <v>1.083764062024932</v>
+        <v>1.083820895522388</v>
       </c>
       <c r="F22">
-        <v>0.8548294172807653</v>
+        <v>0.854826294859205</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1510,16 +1516,16 @@
         <v>1.031407596552825</v>
       </c>
       <c r="C23">
-        <v>1.016022620169651</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="D23">
-        <v>0.9969858404598345</v>
+        <v>0.9969924534568335</v>
       </c>
       <c r="E23">
-        <v>1.108619641228337</v>
+        <v>1.10865671641791</v>
       </c>
       <c r="F23">
-        <v>0.859990704997242</v>
+        <v>0.8599969247331842</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1536,16 +1542,16 @@
         <v>1.046536865624003</v>
       </c>
       <c r="C24">
-        <v>1.057492931196984</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="D24">
-        <v>1.040515911958503</v>
+        <v>1.040518847906711</v>
       </c>
       <c r="E24">
-        <v>1.117588932806324</v>
+        <v>1.117611940298507</v>
       </c>
       <c r="F24">
-        <v>0.8854574903189171</v>
+        <v>0.8854615918119588</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1562,16 +1568,16 @@
         <v>1.021640600063837</v>
       </c>
       <c r="C25">
-        <v>1.054665409990575</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="D25">
-        <v>1.040095331557549</v>
+        <v>1.040094470173626</v>
       </c>
       <c r="E25">
-        <v>1.120933414411675</v>
+        <v>1.120955223880597</v>
       </c>
       <c r="F25">
-        <v>0.8811574945011675</v>
+        <v>0.8811574214444799</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1588,16 +1594,16 @@
         <v>1.011809766996489</v>
       </c>
       <c r="C26">
-        <v>1.0311027332705</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="D26">
-        <v>1.045843263703911</v>
+        <v>1.045832795173165</v>
       </c>
       <c r="E26">
-        <v>1.105047126786257</v>
+        <v>1.105074626865672</v>
       </c>
       <c r="F26">
-        <v>0.8747561779874112</v>
+        <v>0.8747556959635738</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1614,16 +1620,16 @@
         <v>1.005170762847111</v>
       </c>
       <c r="C27">
-        <v>1.002827521206409</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="D27">
-        <v>1.057339127996635</v>
+        <v>1.057327896378028</v>
       </c>
       <c r="E27">
-        <v>1.126862268166616</v>
+        <v>1.126925373134328</v>
       </c>
       <c r="F27">
-        <v>0.8762138947754798</v>
+        <v>0.8762128156703133</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1640,16 +1646,16 @@
         <v>1.016342164060006</v>
       </c>
       <c r="C28">
-        <v>1.019792648444863</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="D28">
-        <v>1.05747932146362</v>
+        <v>1.057475506024319</v>
       </c>
       <c r="E28">
-        <v>1.139480085132259</v>
+        <v>1.139582089552239</v>
       </c>
       <c r="F28">
-        <v>0.8831253082556452</v>
+        <v>0.8831389286900138</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1666,16 +1672,16 @@
         <v>1.039834024896266</v>
       </c>
       <c r="C29">
-        <v>1.04995287464656</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="D29">
-        <v>1.082223468386373</v>
+        <v>1.082218572983745</v>
       </c>
       <c r="E29">
-        <v>1.161067193675889</v>
+        <v>1.161074626865672</v>
       </c>
       <c r="F29">
-        <v>0.9039736044463053</v>
+        <v>0.9039722943148982</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1692,16 +1698,16 @@
         <v>1.061857644430259</v>
       </c>
       <c r="C30">
-        <v>1.062205466540999</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="D30">
-        <v>1.135426889106967</v>
+        <v>1.135431850471428</v>
       </c>
       <c r="E30">
-        <v>1.189647309212527</v>
+        <v>1.189731343283582</v>
       </c>
       <c r="F30">
-        <v>0.9320734082904799</v>
+        <v>0.9320857813188874</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1718,16 +1724,16 @@
         <v>1.041046919885094</v>
       </c>
       <c r="C31">
-        <v>1.039585296889727</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="D31">
-        <v>1.095752137950371</v>
+        <v>1.095743306825101</v>
       </c>
       <c r="E31">
-        <v>1.137503800547279</v>
+        <v>1.13755223880597</v>
       </c>
       <c r="F31">
-        <v>0.9029938094656432</v>
+        <v>0.9029949851070703</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1744,16 +1750,16 @@
         <v>1.037727417810405</v>
       </c>
       <c r="C32">
-        <v>1.024505183788878</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="D32">
-        <v>1.089373335202579</v>
+        <v>1.089377640828828</v>
       </c>
       <c r="E32">
-        <v>1.150197628458498</v>
+        <v>1.150208955223881</v>
       </c>
       <c r="F32">
-        <v>0.8998553515843817</v>
+        <v>0.8998542239198616</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1770,16 +1776,16 @@
         <v>1.007532716246409</v>
       </c>
       <c r="C33">
-        <v>1.007540056550424</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="D33">
-        <v>1.003294546474134</v>
+        <v>1.003284314629961</v>
       </c>
       <c r="E33">
-        <v>1.10063849194284</v>
+        <v>1.10065671641791</v>
       </c>
       <c r="F33">
-        <v>0.8552549228824945</v>
+        <v>0.8552443021840939</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1796,16 +1802,16 @@
         <v>1.008426428343441</v>
       </c>
       <c r="C34">
-        <v>0.9896324222431668</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="D34">
-        <v>1.006589092948268</v>
+        <v>1.006587080465708</v>
       </c>
       <c r="E34">
-        <v>1.08498023715415</v>
+        <v>1.085014925373134</v>
       </c>
       <c r="F34">
-        <v>0.8508661444030866</v>
+        <v>0.8508682225649102</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1822,16 +1828,16 @@
         <v>0.9908713692946058</v>
       </c>
       <c r="C35">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="D35">
-        <v>0.9510023832889387</v>
+        <v>0.9509935974315922</v>
       </c>
       <c r="E35">
-        <v>1.045530556400122</v>
+        <v>1.045611940298508</v>
       </c>
       <c r="F35">
-        <v>0.8171006033900203</v>
+        <v>0.8171095872876718</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1848,16 +1854,16 @@
         <v>0.985955952760932</v>
       </c>
       <c r="C36">
-        <v>0.9377945334590009</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="D36">
-        <v>0.9374036169914481</v>
+        <v>0.9373950587670905</v>
       </c>
       <c r="E36">
-        <v>1.042338096685923</v>
+        <v>1.042388059701493</v>
       </c>
       <c r="F36">
-        <v>0.8083665622177438</v>
+        <v>0.808364602997877</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1874,16 +1880,16 @@
         <v>0.9758059368017874</v>
       </c>
       <c r="C37">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="D37">
-        <v>0.9111874386653581</v>
+        <v>0.9111943465505471</v>
       </c>
       <c r="E37">
-        <v>1.014974156278504</v>
+        <v>1.015044776119403</v>
       </c>
       <c r="F37">
-        <v>0.7901099202542285</v>
+        <v>0.7901184244266506</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1900,16 +1906,16 @@
         <v>0.9952122566230449</v>
       </c>
       <c r="C38">
-        <v>0.9538171536286523</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="D38">
-        <v>0.9165147904107669</v>
+        <v>0.9165082938170009</v>
       </c>
       <c r="E38">
-        <v>1.02873213742779</v>
+        <v>1.028776119402985</v>
       </c>
       <c r="F38">
-        <v>0.8035256832539269</v>
+        <v>0.8035213375411467</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1926,16 +1932,16 @@
         <v>0.9912543887647621</v>
       </c>
       <c r="C39">
-        <v>0.9575871819038644</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="D39">
-        <v>0.891279966353568</v>
+        <v>0.8912854955071314</v>
       </c>
       <c r="E39">
-        <v>1.009653390088173</v>
+        <v>1.009671641791045</v>
       </c>
       <c r="F39">
-        <v>0.7920182652748925</v>
+        <v>0.7920137713231858</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1952,16 +1958,16 @@
         <v>1.002617299712735</v>
       </c>
       <c r="C40">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="D40">
-        <v>0.9129398570026636</v>
+        <v>0.9129287598944591</v>
       </c>
       <c r="E40">
-        <v>1.026603830951657</v>
+        <v>1.026626865671642</v>
       </c>
       <c r="F40">
-        <v>0.8051763564062965</v>
+        <v>0.8051674225048062</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1978,16 +1984,16 @@
         <v>0.970954356846473</v>
       </c>
       <c r="C41">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="D41">
-        <v>0.8674470769662135</v>
+        <v>0.8674465376312342</v>
       </c>
       <c r="E41">
-        <v>0.9798570994223167</v>
+        <v>0.9799402985074627</v>
       </c>
       <c r="F41">
-        <v>0.7690565179198365</v>
+        <v>0.7690646400849037</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2004,16 +2010,16 @@
         <v>0.9725502713054581</v>
       </c>
       <c r="C42">
-        <v>0.9245994344957587</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="D42">
-        <v>0.8776812000560773</v>
+        <v>0.8776869568426298</v>
       </c>
       <c r="E42">
-        <v>0.9825934934630586</v>
+        <v>0.982686567164179</v>
       </c>
       <c r="F42">
-        <v>0.7742781724261171</v>
+        <v>0.7742928541386014</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2030,16 +2036,16 @@
         <v>0.9368656240025535</v>
       </c>
       <c r="C43">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="D43">
-        <v>0.8151549137810177</v>
+        <v>0.8151558204328654</v>
       </c>
       <c r="E43">
-        <v>0.9266494375190027</v>
+        <v>0.9266865671641791</v>
       </c>
       <c r="F43">
-        <v>0.7309769334050449</v>
+        <v>0.7309740486973888</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2056,16 +2062,16 @@
         <v>0.9113309926587935</v>
       </c>
       <c r="C44">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="D44">
-        <v>0.7889387354549277</v>
+        <v>0.7889366570105357</v>
       </c>
       <c r="E44">
-        <v>0.8996655518394648</v>
+        <v>0.8997014925373134</v>
       </c>
       <c r="F44">
-        <v>0.7111289730664245</v>
+        <v>0.7111323058132346</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2082,16 +2088,16 @@
         <v>0.9156718799872327</v>
       </c>
       <c r="C45">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="D45">
-        <v>0.8178886863872143</v>
+        <v>0.8178865988892374</v>
       </c>
       <c r="E45">
-        <v>0.9204925509273336</v>
+        <v>0.9204776119402985</v>
       </c>
       <c r="F45">
-        <v>0.7274204817965563</v>
+        <v>0.7274159314452302</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2108,16 +2114,16 @@
         <v>0.9248005106926269</v>
       </c>
       <c r="C46">
-        <v>0.9066918001885014</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="D46">
-        <v>0.8495023131922051</v>
+        <v>0.8494935144011662</v>
       </c>
       <c r="E46">
-        <v>0.9444359987838248</v>
+        <v>0.9444776119402986</v>
       </c>
       <c r="F46">
-        <v>0.7475213960025506</v>
+        <v>0.7475195445907227</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2134,16 +2140,16 @@
         <v>0.9181615065432492</v>
       </c>
       <c r="C47">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="D47">
-        <v>0.8528669563998317</v>
+        <v>0.8528700850600587</v>
       </c>
       <c r="E47">
-        <v>0.9461082395865004</v>
+        <v>0.9461492537313433</v>
       </c>
       <c r="F47">
-        <v>0.7489006006999903</v>
+        <v>0.7489054390258369</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2160,16 +2166,16 @@
         <v>0.885221832109799</v>
       </c>
       <c r="C48">
-        <v>0.889726672950047</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="D48">
-        <v>0.8111593999719613</v>
+        <v>0.8111519087772386</v>
       </c>
       <c r="E48">
-        <v>0.9020979020979021</v>
+        <v>0.9020895522388059</v>
       </c>
       <c r="F48">
-        <v>0.7182700016970749</v>
+        <v>0.7182650128507089</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2186,16 +2192,16 @@
         <v>0.8838174273858922</v>
       </c>
       <c r="C49">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="D49">
-        <v>0.8331697742885182</v>
+        <v>0.8331641972802923</v>
       </c>
       <c r="E49">
-        <v>0.907190635451505</v>
+        <v>0.907223880597015</v>
       </c>
       <c r="F49">
-        <v>0.7262952036235156</v>
+        <v>0.726295114637554</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2212,16 +2218,16 @@
         <v>0.896265560165975</v>
       </c>
       <c r="C50">
-        <v>0.9123468426013195</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="D50">
-        <v>0.8435440908453665</v>
+        <v>0.8435337749321918</v>
       </c>
       <c r="E50">
-        <v>0.9147917300091213</v>
+        <v>0.914865671641791</v>
       </c>
       <c r="F50">
-        <v>0.7367742939009161</v>
+        <v>0.7367827235499311</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2238,16 +2244,16 @@
         <v>0.9002234280242578</v>
       </c>
       <c r="C51">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="D51">
-        <v>0.8684284312351044</v>
+        <v>0.868424451537908</v>
       </c>
       <c r="E51">
-        <v>0.9296138643964732</v>
+        <v>0.9296716417910447</v>
       </c>
       <c r="F51">
-        <v>0.7482648421410472</v>
+        <v>0.7482701006451493</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2264,16 +2270,16 @@
         <v>0.8791573571656559</v>
       </c>
       <c r="C52">
-        <v>0.8850141376060321</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="D52">
-        <v>0.8452264124491798</v>
+        <v>0.8452312858645312</v>
       </c>
       <c r="E52">
-        <v>0.9109151717847369</v>
+        <v>0.9109253731343283</v>
       </c>
       <c r="F52">
-        <v>0.7291348735638979</v>
+        <v>0.7291289834788147</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2290,16 +2296,16 @@
         <v>0.8875199489307374</v>
       </c>
       <c r="C53">
-        <v>0.8963242224316682</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="D53">
-        <v>0.8490817327912519</v>
+        <v>0.8490875878738676</v>
       </c>
       <c r="E53">
-        <v>0.9124353906962602</v>
+        <v>0.9124776119402984</v>
       </c>
       <c r="F53">
-        <v>0.734002320417605</v>
+        <v>0.7340024238434673</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2316,16 +2322,16 @@
         <v>0.8838812639642516</v>
       </c>
       <c r="C54">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="D54">
-        <v>0.8570727604093648</v>
+        <v>0.8570769599793348</v>
       </c>
       <c r="E54">
-        <v>0.9087108543630283</v>
+        <v>0.9087761194029851</v>
       </c>
       <c r="F54">
-        <v>0.7304392223397046</v>
+        <v>0.7304494653477019</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2342,16 +2348,16 @@
         <v>0.8719438238110436</v>
       </c>
       <c r="C55">
-        <v>0.8435438265786994</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="D55">
-        <v>0.8576335342773026</v>
+        <v>0.8576304961529237</v>
       </c>
       <c r="E55">
-        <v>0.9103070842201276</v>
+        <v>0.9103283582089552</v>
       </c>
       <c r="F55">
-        <v>0.7248526357740872</v>
+        <v>0.7248550542600839</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2368,16 +2374,16 @@
         <v>0.8801787424194063</v>
       </c>
       <c r="C56">
-        <v>0.8576814326107447</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="D56">
-        <v>0.8513248282630029</v>
+        <v>0.8513201837740096</v>
       </c>
       <c r="E56">
-        <v>0.9248251748251747</v>
+        <v>0.9248955223880596</v>
       </c>
       <c r="F56">
-        <v>0.7289695769280705</v>
+        <v>0.7289721637409295</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2394,16 +2400,16 @@
         <v>0.9064155761251197</v>
       </c>
       <c r="C57">
-        <v>0.8934967012252591</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="D57">
-        <v>0.8823776812000559</v>
+        <v>0.8823735631123494</v>
       </c>
       <c r="E57">
-        <v>0.9518850714502889</v>
+        <v>0.9518805970149253</v>
       </c>
       <c r="F57">
-        <v>0.7542307587348807</v>
+        <v>0.7542276512181338</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2420,16 +2426,16 @@
         <v>0.9044366421959783</v>
       </c>
       <c r="C58">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="D58">
-        <v>0.8982195429692976</v>
+        <v>0.8982231488827795</v>
       </c>
       <c r="E58">
-        <v>0.9535573122529644</v>
+        <v>0.9535522388059701</v>
       </c>
       <c r="F58">
-        <v>0.7574753596628596</v>
+        <v>0.7574743159514217</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2446,16 +2452,16 @@
         <v>0.9165655920842642</v>
       </c>
       <c r="C59">
-        <v>0.8925541941564561</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="D59">
-        <v>0.9017944763774008</v>
+        <v>0.9017842315995351</v>
       </c>
       <c r="E59">
-        <v>0.9683794466403162</v>
+        <v>0.9684776119402986</v>
       </c>
       <c r="F59">
-        <v>0.7649251495611169</v>
+        <v>0.7649290420428629</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2472,16 +2478,16 @@
         <v>0.9132460900095756</v>
       </c>
       <c r="C60">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="D60">
-        <v>0.8860227113416514</v>
+        <v>0.8860269018580363</v>
       </c>
       <c r="E60">
-        <v>0.9633627242322895</v>
+        <v>0.9634626865671641</v>
       </c>
       <c r="F60">
-        <v>0.7564056781289401</v>
+        <v>0.7564142444903814</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2498,16 +2504,16 @@
         <v>0.9290137248643473</v>
       </c>
       <c r="C61">
-        <v>0.8982092365692743</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="D61">
-        <v>0.9074723117902705</v>
+        <v>0.9074672029817148</v>
       </c>
       <c r="E61">
-        <v>0.9886743691091516</v>
+        <v>0.9887761194029849</v>
       </c>
       <c r="F61">
-        <v>0.7732250372375151</v>
+        <v>0.7732366636256942</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2524,16 +2530,16 @@
         <v>0.9376316629428664</v>
       </c>
       <c r="C62">
-        <v>0.9095193213949105</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="D62">
-        <v>0.9508621898219544</v>
+        <v>0.9508644389910882</v>
       </c>
       <c r="E62">
-        <v>0.997187595013682</v>
+        <v>0.9972537313432837</v>
       </c>
       <c r="F62">
-        <v>0.7923361431559246</v>
+        <v>0.7923447076508074</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2550,16 +2556,16 @@
         <v>0.9328439195659113</v>
       </c>
       <c r="C63">
-        <v>0.9142318567389255</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="D63">
-        <v>0.9374737137249403</v>
+        <v>0.9374688635902356</v>
       </c>
       <c r="E63">
-        <v>0.979477044694436</v>
+        <v>0.9795820895522388</v>
       </c>
       <c r="F63">
-        <v>0.7849829198756345</v>
+        <v>0.7849930952698925</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2576,16 +2582,16 @@
         <v>0.9307373124800511</v>
       </c>
       <c r="C64">
-        <v>0.9085768143261075</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="D64">
-        <v>0.8959764474975466</v>
+        <v>0.8959721017768512</v>
       </c>
       <c r="E64">
-        <v>0.9690635451505015</v>
+        <v>0.9690746268656716</v>
       </c>
       <c r="F64">
-        <v>0.7682511141810702</v>
+        <v>0.7682510133478277</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2602,16 +2608,16 @@
         <v>0.9364187679540377</v>
       </c>
       <c r="C65">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="D65">
-        <v>0.9132903406701247</v>
+        <v>0.9132793328043988</v>
       </c>
       <c r="E65">
-        <v>0.9863940407418669</v>
+        <v>0.9863880597014925</v>
       </c>
       <c r="F65">
-        <v>0.7769889471226914</v>
+        <v>0.776975789917449</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2628,16 +2634,16 @@
         <v>0.9261410788381743</v>
       </c>
       <c r="C66">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="D66">
-        <v>0.8874947427449881</v>
+        <v>0.887484547115154</v>
       </c>
       <c r="E66">
-        <v>0.9756764974156279</v>
+        <v>0.9757611940298507</v>
       </c>
       <c r="F66">
-        <v>0.7627176311851188</v>
+        <v>0.7627245075463642</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2654,16 +2660,16 @@
         <v>0.9078838174273859</v>
       </c>
       <c r="C67">
-        <v>0.8633364750235627</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="D67">
-        <v>0.888406000280387</v>
+        <v>0.8884071074044688</v>
       </c>
       <c r="E67">
-        <v>0.9427637579811492</v>
+        <v>0.9428059701492537</v>
       </c>
       <c r="F67">
-        <v>0.7498374498760787</v>
+        <v>0.7498427398936891</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2680,16 +2686,16 @@
         <v>0.9120970315991064</v>
       </c>
       <c r="C68">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="D68">
-        <v>0.8963970278984998</v>
+        <v>0.8963964795099361</v>
       </c>
       <c r="E68">
-        <v>0.9540893888719976</v>
+        <v>0.9541492537313433</v>
       </c>
       <c r="F68">
-        <v>0.7557003693030244</v>
+        <v>0.7557081544549048</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2706,16 +2712,16 @@
         <v>0.920842642834344</v>
       </c>
       <c r="C69">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="D69">
-        <v>0.9077526987242394</v>
+        <v>0.9077439710685093</v>
       </c>
       <c r="E69">
-        <v>0.9620705381574948</v>
+        <v>0.9621492537313432</v>
       </c>
       <c r="F69">
-        <v>0.7685002060837798</v>
+        <v>0.7685017762891829</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2732,16 +2738,16 @@
         <v>0.9136929460580913</v>
       </c>
       <c r="C70">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="D70">
-        <v>0.9008832188420017</v>
+        <v>0.9008801225160065</v>
       </c>
       <c r="E70">
-        <v>0.9607783520826999</v>
+        <v>0.9608358208955223</v>
       </c>
       <c r="F70">
-        <v>0.7648046185683373</v>
+        <v>0.7648045413969835</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2758,16 +2764,16 @@
         <v>0.9138844557931695</v>
       </c>
       <c r="C71">
-        <v>0.9029217719132893</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="D71">
-        <v>0.9230337866255431</v>
+        <v>0.9230400206653505</v>
       </c>
       <c r="E71">
-        <v>0.9591821222256005</v>
+        <v>0.9592835820895522</v>
       </c>
       <c r="F71">
-        <v>0.7717232584637513</v>
+        <v>0.7717361138334484</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2784,16 +2790,16 @@
         <v>0.9487392275774018</v>
       </c>
       <c r="C72">
-        <v>0.9557021677662583</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="D72">
-        <v>0.9344595541847749</v>
+        <v>0.934461317047069</v>
       </c>
       <c r="E72">
-        <v>0.9800091213134691</v>
+        <v>0.9800597014925373</v>
       </c>
       <c r="F72">
-        <v>0.7938281951061203</v>
+        <v>0.7938329824706664</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2810,16 +2816,16 @@
         <v>0.9440153207788062</v>
       </c>
       <c r="C73">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="D73">
-        <v>0.9451142576755923</v>
+        <v>0.9451076627857632</v>
       </c>
       <c r="E73">
-        <v>0.9905746427485557</v>
+        <v>0.9905671641791045</v>
       </c>
       <c r="F73">
-        <v>0.7974833631306355</v>
+        <v>0.7974782789809867</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2836,16 +2842,16 @@
         <v>0.951165017555059</v>
       </c>
       <c r="C74">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="D74">
-        <v>0.9683162764615167</v>
+        <v>0.9683192796649261</v>
       </c>
       <c r="E74">
-        <v>1.005624809972636</v>
+        <v>1.005731343283582</v>
       </c>
       <c r="F74">
-        <v>0.8088387553739269</v>
+        <v>0.8088556505553122</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2862,16 +2868,16 @@
         <v>0.9572294924992021</v>
       </c>
       <c r="C75">
-        <v>0.9528746465598491</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="D75">
-        <v>0.9681059862610401</v>
+        <v>0.9680978651954907</v>
       </c>
       <c r="E75">
-        <v>1.006232897537245</v>
+        <v>1.006328358208955</v>
       </c>
       <c r="F75">
-        <v>0.8102211071998275</v>
+        <v>0.8102273143931833</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2888,16 +2894,16 @@
         <v>0.9639961698052985</v>
       </c>
       <c r="C76">
-        <v>0.9641847313854853</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="D76">
-        <v>0.9790410766858265</v>
+        <v>0.9790394302267653</v>
       </c>
       <c r="E76">
-        <v>1.04317421708726</v>
+        <v>1.043223880597015</v>
       </c>
       <c r="F76">
-        <v>0.8229980543281541</v>
+        <v>0.8229992278880927</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2914,16 +2920,16 @@
         <v>0.960421321417172</v>
       </c>
       <c r="C77">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="D77">
-        <v>0.9650217299873826</v>
+        <v>0.9650165138291789</v>
       </c>
       <c r="E77">
-        <v>1.039525691699605</v>
+        <v>1.039522388059702</v>
       </c>
       <c r="F77">
-        <v>0.8155596769857576</v>
+        <v>0.8155558654403088</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2940,16 +2946,16 @@
         <v>0.9646983721672518</v>
       </c>
       <c r="C78">
-        <v>0.945334590009425</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="D78">
-        <v>0.9783401093509041</v>
+        <v>0.978338284406886</v>
       </c>
       <c r="E78">
-        <v>1.063849194283977</v>
+        <v>1.063880597014925</v>
       </c>
       <c r="F78">
-        <v>0.8230929567126897</v>
+        <v>0.8230904145471488</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2966,16 +2972,16 @@
         <v>0.9695499521225662</v>
       </c>
       <c r="C79">
-        <v>0.9679547596606973</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="D79">
-        <v>1.002944062806673</v>
+        <v>1.002933741720021</v>
       </c>
       <c r="E79">
-        <v>1.072058376406203</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="F79">
-        <v>0.8372369738363805</v>
+        <v>0.8372372884350068</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -2992,16 +2998,16 @@
         <v>0.9704436642195978</v>
       </c>
       <c r="C80">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="D80">
-        <v>1.001752418337305</v>
+        <v>1.001752864549698</v>
       </c>
       <c r="E80">
-        <v>1.072058376406203</v>
+        <v>1.072119402985075</v>
       </c>
       <c r="F80">
-        <v>0.8365149836128949</v>
+        <v>0.8365161276639183</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3018,16 +3024,16 @@
         <v>0.9738908394510055</v>
       </c>
       <c r="C81">
-        <v>0.9839773798303488</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="D81">
-        <v>0.990116360577597</v>
+        <v>0.9901101536985443</v>
       </c>
       <c r="E81">
-        <v>1.076695044086349</v>
+        <v>1.076776119402985</v>
       </c>
       <c r="F81">
-        <v>0.8372306785426848</v>
+        <v>0.837233578912203</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3044,16 +3050,16 @@
         <v>0.9506543249281839</v>
       </c>
       <c r="C82">
-        <v>0.9764373232799246</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="D82">
-        <v>0.9599046684424504</v>
+        <v>0.9599055298263742</v>
       </c>
       <c r="E82">
-        <v>1.045454545454545</v>
+        <v>1.045492537313433</v>
       </c>
       <c r="F82">
-        <v>0.8168741207813871</v>
+        <v>0.8168719873883826</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3070,16 +3076,16 @@
         <v>0.9190552186402808</v>
       </c>
       <c r="C83">
-        <v>0.9500471253534402</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="D83">
-        <v>0.9438525164727324</v>
+        <v>0.9438529807922948</v>
       </c>
       <c r="E83">
-        <v>1.010185466707206</v>
+        <v>1.010268656716418</v>
       </c>
       <c r="F83">
-        <v>0.7958993309216232</v>
+        <v>0.795903622876466</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3096,16 +3102,16 @@
         <v>0.919565911267156</v>
       </c>
       <c r="C84">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="D84">
-        <v>0.9278003645030142</v>
+        <v>0.9278004317582155</v>
       </c>
       <c r="E84">
-        <v>1.018546670720584</v>
+        <v>1.018626865671642</v>
       </c>
       <c r="F84">
-        <v>0.7928696681888749</v>
+        <v>0.7928813774373582</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3122,16 +3128,16 @@
         <v>0.9318225343121609</v>
       </c>
       <c r="C85">
-        <v>0.9387370405278039</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="D85">
-        <v>0.9603953455768961</v>
+        <v>0.960385261176818</v>
       </c>
       <c r="E85">
-        <v>1.035725144420797</v>
+        <v>1.035820895522388</v>
       </c>
       <c r="F85">
-        <v>0.8058202405926012</v>
+        <v>0.8058332465190272</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3148,16 +3154,16 @@
         <v>0.9362910947973188</v>
       </c>
       <c r="C86">
-        <v>0.942507068803016</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="D86">
-        <v>0.9758867236786766</v>
+        <v>0.9758842740373084</v>
       </c>
       <c r="E86">
-        <v>1.058224384311341</v>
+        <v>1.058268656716418</v>
       </c>
       <c r="F86">
-        <v>0.8160453300373915</v>
+        <v>0.8160419814616686</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3174,16 +3180,16 @@
         <v>0.9285668688158314</v>
       </c>
       <c r="C87">
-        <v>0.9236569274269556</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="D87">
-        <v>0.9777092387494742</v>
+        <v>0.9777109434101519</v>
       </c>
       <c r="E87">
-        <v>1.063165095773791</v>
+        <v>1.063164179104477</v>
       </c>
       <c r="F87">
-        <v>0.8129443349512759</v>
+        <v>0.8129447660479994</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3200,16 +3206,16 @@
         <v>0.9475263325885732</v>
       </c>
       <c r="C88">
-        <v>0.9519321394910462</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="D88">
-        <v>0.9918687789149024</v>
+        <v>0.9918630182482426</v>
       </c>
       <c r="E88">
-        <v>1.069550015202189</v>
+        <v>1.069611940298508</v>
       </c>
       <c r="F88">
-        <v>0.8267003898038143</v>
+        <v>0.8267044375557637</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3226,16 +3232,16 @@
         <v>0.9631024577082667</v>
       </c>
       <c r="C89">
-        <v>0.9924599434495758</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="D89">
-        <v>1.011215477358755</v>
+        <v>1.011218333118069</v>
       </c>
       <c r="E89">
-        <v>1.095317725752508</v>
+        <v>1.095402985074627</v>
       </c>
       <c r="F89">
-        <v>0.8468741404743865</v>
+        <v>0.8468888931443332</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3252,16 +3258,16 @@
         <v>0.9581232045962336</v>
       </c>
       <c r="C90">
-        <v>0.9934024505183789</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="D90">
-        <v>1.013108089163045</v>
+        <v>1.013100356108272</v>
       </c>
       <c r="E90">
-        <v>1.088096685922773</v>
+        <v>1.088119402985075</v>
       </c>
       <c r="F90">
-        <v>0.8456209839705466</v>
+        <v>0.8456193278620754</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3278,16 +3284,16 @@
         <v>0.9618895627194382</v>
       </c>
       <c r="C91">
-        <v>1.026390197926484</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="D91">
-        <v>1.004556287676994</v>
+        <v>1.004557447829216</v>
       </c>
       <c r="E91">
-        <v>1.078139252052296</v>
+        <v>1.07820895522388</v>
       </c>
       <c r="F91">
-        <v>0.8474041108318437</v>
+        <v>0.847406387274119</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3304,16 +3310,16 @@
         <v>0.9662304500478774</v>
       </c>
       <c r="C92">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="D92">
-        <v>1.029230337866255</v>
+        <v>1.029226709965496</v>
       </c>
       <c r="E92">
-        <v>1.090148981453329</v>
+        <v>1.090149253731343</v>
       </c>
       <c r="F92">
-        <v>0.8592274608014842</v>
+        <v>0.8592221486014121</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3330,16 +3336,16 @@
         <v>0.9556974146185765</v>
       </c>
       <c r="C93">
-        <v>1.027332704995288</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="D93">
-        <v>1.032244497406421</v>
+        <v>1.032234256508663</v>
       </c>
       <c r="E93">
-        <v>1.095165703861356</v>
+        <v>1.095164179104477</v>
       </c>
       <c r="F93">
-        <v>0.8584581456155995</v>
+        <v>0.858452820853272</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3356,16 +3362,16 @@
         <v>0.9628471113948293</v>
       </c>
       <c r="C94">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="D94">
-        <v>1.059442030001402</v>
+        <v>1.059431333837666</v>
       </c>
       <c r="E94">
-        <v>1.092201276983886</v>
+        <v>1.092298507462687</v>
       </c>
       <c r="F94">
-        <v>0.8683198755908201</v>
+        <v>0.8683281002077073</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3382,16 +3388,16 @@
         <v>0.9899776571975741</v>
       </c>
       <c r="C95">
-        <v>1.037700282752121</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="D95">
-        <v>1.096453105285294</v>
+        <v>1.09644445264498</v>
       </c>
       <c r="E95">
-        <v>1.118121009425357</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="F95">
-        <v>0.8910247410907791</v>
+        <v>0.8910271756231269</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3408,16 +3414,16 @@
         <v>0.9839770188317907</v>
       </c>
       <c r="C96">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="D96">
-        <v>1.086990046263844</v>
+        <v>1.086978984076609</v>
       </c>
       <c r="E96">
-        <v>1.114548494983277</v>
+        <v>1.114626865671642</v>
       </c>
       <c r="F96">
-        <v>0.8853310009983952</v>
+        <v>0.8853361217214939</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3434,16 +3440,16 @@
         <v>0.9931694861155442</v>
       </c>
       <c r="C97">
-        <v>1.036757775683318</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="D97">
-        <v>1.093018365344175</v>
+        <v>1.093012528368729</v>
       </c>
       <c r="E97">
-        <v>1.134691395560961</v>
+        <v>1.134686567164179</v>
       </c>
       <c r="F97">
-        <v>0.8930077753369429</v>
+        <v>0.8929984262933712</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3460,16 +3466,16 @@
         <v>0.9858921161825726</v>
       </c>
       <c r="C98">
-        <v>1.079170593779453</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="D98">
-        <v>1.094420300014019</v>
+        <v>1.094414820008488</v>
       </c>
       <c r="E98">
-        <v>1.110671936758893</v>
+        <v>1.110686567164179</v>
       </c>
       <c r="F98">
-        <v>0.8954802292633882</v>
+        <v>0.8954730300785996</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3486,16 +3492,16 @@
         <v>0.9940631982125757</v>
       </c>
       <c r="C99">
-        <v>1.130065975494816</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="D99">
-        <v>1.100799102761811</v>
+        <v>1.100798937210547</v>
       </c>
       <c r="E99">
-        <v>1.122301611432046</v>
+        <v>1.122388059701492</v>
       </c>
       <c r="F99">
-        <v>0.9095454293279419</v>
+        <v>0.9095588264858813</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3512,16 +3518,16 @@
         <v>0.9981487392275775</v>
       </c>
       <c r="C100">
-        <v>1.116870876531574</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="D100">
-        <v>1.11404738539184</v>
+        <v>1.114046902965109</v>
       </c>
       <c r="E100">
-        <v>1.145104895104895</v>
+        <v>1.145194029850746</v>
       </c>
       <c r="F100">
-        <v>0.9161312795506709</v>
+        <v>0.9161393103769608</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3538,16 +3544,16 @@
         <v>0.9809128630705394</v>
       </c>
       <c r="C101">
-        <v>1.111215834118756</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="D101">
-        <v>1.097855039955138</v>
+        <v>1.097846744284739</v>
       </c>
       <c r="E101">
-        <v>1.121389480085132</v>
+        <v>1.121432835820896</v>
       </c>
       <c r="F101">
-        <v>0.9029833059214226</v>
+        <v>0.9029862660750489</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3564,16 +3570,16 @@
         <v>0.9720395786785828</v>
       </c>
       <c r="C102">
-        <v>1.106503298774741</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="D102">
-        <v>1.114538062526286</v>
+        <v>1.114526634315553</v>
       </c>
       <c r="E102">
-        <v>1.111051991486774</v>
+        <v>1.111164179104478</v>
       </c>
       <c r="F102">
-        <v>0.9044734283960572</v>
+        <v>0.9044786695624183</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3590,16 +3596,16 @@
         <v>0.9770826683689754</v>
       </c>
       <c r="C103">
-        <v>1.133836003770028</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="D103">
-        <v>1.135917566241413</v>
+        <v>1.135911581821872</v>
       </c>
       <c r="E103">
-        <v>1.123517786561265</v>
+        <v>1.123582089552239</v>
       </c>
       <c r="F103">
-        <v>0.9190894059059056</v>
+        <v>0.9190973576257538</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3616,16 +3622,16 @@
         <v>0.9823811043728056</v>
       </c>
       <c r="C104">
-        <v>1.113100848256362</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="D104">
-        <v>1.154212813682882</v>
+        <v>1.15421517796188</v>
       </c>
       <c r="E104">
-        <v>1.125038005472788</v>
+        <v>1.125134328358209</v>
       </c>
       <c r="F104">
-        <v>0.9227534313653196</v>
+        <v>0.9227634588881413</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3642,16 +3648,16 @@
         <v>0.9772741781040536</v>
       </c>
       <c r="C105">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="D105">
-        <v>1.079139212112716</v>
+        <v>1.079137221617433</v>
       </c>
       <c r="E105">
-        <v>1.114320462146549</v>
+        <v>1.114388059701493</v>
       </c>
       <c r="F105">
-        <v>0.8940607611190753</v>
+        <v>0.8940643543680793</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3668,16 +3674,16 @@
         <v>0.981168209383977</v>
       </c>
       <c r="C106">
-        <v>1.103675777568332</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="D106">
-        <v>1.080330856582083</v>
+        <v>1.080336549993542</v>
       </c>
       <c r="E106">
-        <v>1.118805107935543</v>
+        <v>1.118805970149254</v>
       </c>
       <c r="F106">
-        <v>0.8955355032633445</v>
+        <v>0.8955358108640692</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3694,16 +3700,16 @@
         <v>0.9945100542610916</v>
       </c>
       <c r="C107">
-        <v>1.141376060320452</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="D107">
-        <v>1.098626104023552</v>
+        <v>1.098621694927764</v>
       </c>
       <c r="E107">
-        <v>1.12777439951353</v>
+        <v>1.127880597014925</v>
       </c>
       <c r="F107">
-        <v>0.9117300297263672</v>
+        <v>0.911735162669063</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3720,16 +3726,16 @@
         <v>0.9900414937759335</v>
       </c>
       <c r="C108">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="D108">
-        <v>1.064629188279826</v>
+        <v>1.064634573869402</v>
       </c>
       <c r="E108">
-        <v>1.119109151717847</v>
+        <v>1.119164179104478</v>
       </c>
       <c r="F108">
-        <v>0.9002443407825313</v>
+        <v>0.9002446491806257</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3746,16 +3752,16 @@
         <v>0.9848707309288222</v>
       </c>
       <c r="C109">
-        <v>1.144203581526861</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="D109">
-        <v>1.064208607878873</v>
+        <v>1.064210196136318</v>
       </c>
       <c r="E109">
-        <v>1.10717543326239</v>
+        <v>1.107223880597015</v>
       </c>
       <c r="F109">
-        <v>0.8958154202057886</v>
+        <v>0.8958157272538221</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3772,16 +3778,16 @@
         <v>0.9577401851260772</v>
       </c>
       <c r="C110">
-        <v>1.076343072573044</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="D110">
-        <v>1.04990887424646</v>
+        <v>1.049910511651936</v>
       </c>
       <c r="E110">
-        <v>1.0669656430526</v>
+        <v>1.066985074626866</v>
       </c>
       <c r="F110">
-        <v>0.8683134134138615</v>
+        <v>0.8683066314112995</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3798,16 +3804,16 @@
         <v>0.9829556335780403</v>
       </c>
       <c r="C111">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="D111">
-        <v>1.070867797560634</v>
+        <v>1.070871081425171</v>
       </c>
       <c r="E111">
-        <v>1.080115536637276</v>
+        <v>1.080119402985074</v>
       </c>
       <c r="F111">
-        <v>0.8866532290384359</v>
+        <v>0.8866480471770017</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3824,16 +3830,16 @@
         <v>0.994254707947654</v>
       </c>
       <c r="C112">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="D112">
-        <v>1.053624001121548</v>
+        <v>1.053619204014983</v>
       </c>
       <c r="E112">
-        <v>1.098738218303436</v>
+        <v>1.098746268656716</v>
       </c>
       <c r="F112">
-        <v>0.893967671416114</v>
+        <v>0.8939568683139789</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3850,16 +3856,16 @@
         <v>0.9952122566230449</v>
       </c>
       <c r="C113">
-        <v>1.157398680490104</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="D113">
-        <v>1.044932006168512</v>
+        <v>1.044928686089636</v>
       </c>
       <c r="E113">
-        <v>1.118121009425357</v>
+        <v>1.118208955223881</v>
       </c>
       <c r="F113">
-        <v>0.8952613879000284</v>
+        <v>0.8952722974749707</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3876,16 +3882,16 @@
         <v>1.001978933929141</v>
       </c>
       <c r="C114">
-        <v>1.161168708765316</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="D114">
-        <v>1.050960325248844</v>
+        <v>1.050962230381755</v>
       </c>
       <c r="E114">
-        <v>1.145332927941624</v>
+        <v>1.145432835820896</v>
       </c>
       <c r="F114">
-        <v>0.9035319397005441</v>
+        <v>0.9035466760980883</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3902,16 +3908,16 @@
         <v>1.017427385892116</v>
       </c>
       <c r="C115">
-        <v>1.190386427898209</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="D115">
-        <v>1.014930604233843</v>
+        <v>1.014927025481115</v>
       </c>
       <c r="E115">
-        <v>1.138948008513226</v>
+        <v>1.138985074626866</v>
       </c>
       <c r="F115">
-        <v>0.8981818691462058</v>
+        <v>0.898177543295178</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3928,16 +3934,16 @@
         <v>1.009894669645707</v>
       </c>
       <c r="C116">
-        <v>1.175306314797361</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="D116">
-        <v>1.023762792653862</v>
+        <v>1.023765153052752</v>
       </c>
       <c r="E116">
-        <v>1.120477348738218</v>
+        <v>1.120477611940299</v>
       </c>
       <c r="F116">
-        <v>0.8942046514729021</v>
+        <v>0.8941956980239483</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3954,16 +3960,16 @@
         <v>1.013086498563677</v>
       </c>
       <c r="C117">
-        <v>1.193213949104618</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="D117">
-        <v>1.044791812701528</v>
+        <v>1.044781076443346</v>
       </c>
       <c r="E117">
-        <v>1.152858011553664</v>
+        <v>1.152955223880597</v>
       </c>
       <c r="F117">
-        <v>0.9100739462014691</v>
+        <v>0.9100799062551221</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3977,25 +3983,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.013086498563677</v>
+        <v>1.023938716884775</v>
       </c>
       <c r="C118">
-        <v>1.193213949104618</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="D118">
-        <v>1.044791812701528</v>
+        <v>1.053194826281898</v>
       </c>
       <c r="E118">
-        <v>1.152858011553664</v>
+        <v>1.168477611940298</v>
       </c>
       <c r="F118">
-        <v>0.9100739462014691</v>
+        <v>0.9222331521708784</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.013980210660709</v>
+      </c>
+      <c r="C119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="D119">
+        <v>1.031828329981364</v>
+      </c>
+      <c r="E119">
+        <v>1.166686567164179</v>
+      </c>
+      <c r="F119">
+        <v>0.9138347735117257</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.036833705713374</v>
+      </c>
+      <c r="C120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="D120">
+        <v>1.040648006347215</v>
+      </c>
+      <c r="E120">
+        <v>1.170149253731343</v>
+      </c>
+      <c r="F120">
+        <v>0.9260042015278047</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.029045643153527</v>
+      </c>
+      <c r="C121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="D121">
+        <v>1.053766813661273</v>
+      </c>
+      <c r="E121">
+        <v>1.189373134328358</v>
+      </c>
+      <c r="F121">
+        <v>0.9299430144966611</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.003574848388126</v>
+      </c>
+      <c r="C122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="D122">
+        <v>1.011919478937949</v>
+      </c>
+      <c r="E122">
+        <v>1.13134328358209</v>
+      </c>
+      <c r="F122">
+        <v>0.901261628831957</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.00957548675391</v>
+      </c>
+      <c r="C123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="D123">
+        <v>1.02053619204015</v>
+      </c>
+      <c r="E123">
+        <v>1.134208955223881</v>
+      </c>
+      <c r="F123">
+        <v>0.910411094618562</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.00217044366422</v>
+      </c>
+      <c r="C124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="D124">
+        <v>1.019410668487186</v>
+      </c>
+      <c r="E124">
+        <v>1.081910447761194</v>
+      </c>
+      <c r="F124">
+        <v>0.900151560789493</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.014427066709224</v>
+      </c>
+      <c r="C125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="D125">
+        <v>1.032732439064893</v>
+      </c>
+      <c r="E125">
+        <v>1.117970149253731</v>
+      </c>
+      <c r="F125">
+        <v>0.9242774571399883</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.021385253750399</v>
+      </c>
+      <c r="C126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="D126">
+        <v>1.016956658117608</v>
+      </c>
+      <c r="E126">
+        <v>1.08644776119403</v>
+      </c>
+      <c r="F126">
+        <v>0.9184159462302013</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.00957548675391</v>
+      </c>
+      <c r="C127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="D127">
+        <v>0.9822683912393675</v>
+      </c>
+      <c r="E127">
+        <v>1.084179104477612</v>
+      </c>
+      <c r="F127">
+        <v>0.9079496284484377</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4107,18 +4347,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4150,172 +4390,148 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>0.17</v>
       </c>
-      <c r="J2">
-        <v>46.01</v>
-      </c>
-      <c r="K2">
-        <v>6.21</v>
-      </c>
-      <c r="L2">
-        <v>20.56</v>
-      </c>
-      <c r="M2">
-        <v>16.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>141.9</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K3">
-        <v>9.640000000000001</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L3">
-        <v>12.41</v>
-      </c>
-      <c r="M3">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>31.9832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>55.84</v>
+        <v>13.56060028076172</v>
       </c>
       <c r="K4">
-        <v>14.11</v>
+        <v>51.59040069580078</v>
       </c>
       <c r="L4">
-        <v>6.87</v>
-      </c>
-      <c r="M4">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.1321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0.165</v>
       </c>
       <c r="J5">
-        <v>53.46</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K5">
-        <v>12.86</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L5">
-        <v>35.09</v>
-      </c>
-      <c r="M5">
-        <v>77.62</v>
+        <v>77.6234</v>
       </c>
     </row>
   </sheetData>
@@ -4333,19 +4549,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4353,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
@@ -4373,10 +4589,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -4393,10 +4609,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>113</v>
@@ -4413,10 +4629,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -4433,16 +4649,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
         <v>152</v>
@@ -4453,10 +4669,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>116</v>
@@ -4473,10 +4689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
@@ -4493,10 +4709,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>118</v>
@@ -4513,10 +4729,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
@@ -4533,16 +4749,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>120</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
       </c>
       <c r="F11" t="s">
         <v>157</v>
@@ -4553,16 +4766,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
         <v>158</v>
@@ -4573,16 +4786,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
         <v>159</v>
@@ -4593,16 +4806,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>160</v>
@@ -4613,7 +4826,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
@@ -4622,7 +4835,7 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
         <v>161</v>
@@ -4633,7 +4846,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
@@ -4642,7 +4855,7 @@
         <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
         <v>162</v>
@@ -4653,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -4662,7 +4875,7 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
         <v>163</v>
@@ -4673,7 +4886,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>107</v>
@@ -4693,7 +4906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
@@ -4713,7 +4926,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
@@ -4733,7 +4946,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>110</v>
@@ -4755,7 +4968,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4771,35 +4984,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4807,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4818,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4829,10 +5042,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
